--- a/Figure 9 - Integrated HPLC/Figure 9 HPLC All.xlsx
+++ b/Figure 9 - Integrated HPLC/Figure 9 HPLC All.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26040" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="30180" windowHeight="18840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Separate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
   <si>
     <t>Lat</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -106,8 +109,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -165,6 +198,21 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -182,6 +230,21 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -278,19 +341,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.4667</c:v>
+                  <c:v>18.5918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.2376</c:v>
+                  <c:v>20.8443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0059</c:v>
+                  <c:v>19.5707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.8432</c:v>
+                  <c:v>14.6758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.8033</c:v>
+                  <c:v>13.9997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,19 +404,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0016</c:v>
+                  <c:v>5.3613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9708</c:v>
+                  <c:v>10.2496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6332</c:v>
+                  <c:v>9.3294</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9816</c:v>
+                  <c:v>8.4359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.9158</c:v>
+                  <c:v>11.4386</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,11 +431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2097280840"/>
-        <c:axId val="2096733336"/>
+        <c:axId val="2045685432"/>
+        <c:axId val="2045692264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2097280840"/>
+        <c:axId val="2045685432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,7 +463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096733336"/>
+        <c:crossAx val="2045692264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -408,7 +471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096733336"/>
+        <c:axId val="2045692264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -447,7 +510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097280840"/>
+        <c:crossAx val="2045685432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,13 +621,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.87909</c:v>
+                  <c:v>15.95425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.82951</c:v>
+                  <c:v>7.28133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.21681</c:v>
+                  <c:v>4.17203</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -621,13 +684,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.62067</c:v>
+                  <c:v>15.8609</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.9884</c:v>
+                  <c:v>20.79345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.43292</c:v>
+                  <c:v>18.22675</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -648,11 +711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2097325928"/>
-        <c:axId val="2097476216"/>
+        <c:axId val="2091522312"/>
+        <c:axId val="2091527928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2097325928"/>
+        <c:axId val="2091522312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097476216"/>
+        <c:crossAx val="2091527928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097476216"/>
+        <c:axId val="2091527928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -764,7 +827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2097325928"/>
+        <c:crossAx val="2091522312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -887,19 +950,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.392</c:v>
+                  <c:v>13.496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.205</c:v>
+                  <c:v>13.519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.811</c:v>
+                  <c:v>14.396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.742</c:v>
+                  <c:v>13.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.561</c:v>
+                  <c:v>17.149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,19 +1013,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.438</c:v>
+                  <c:v>11.608</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.492</c:v>
+                  <c:v>16.746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.853</c:v>
+                  <c:v>10.898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.892</c:v>
+                  <c:v>19.173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.211</c:v>
+                  <c:v>38.494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,11 +1040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141558920"/>
-        <c:axId val="2141453464"/>
+        <c:axId val="2091560040"/>
+        <c:axId val="2091565512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141558920"/>
+        <c:axId val="2091560040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141453464"/>
+        <c:crossAx val="2091565512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141453464"/>
+        <c:axId val="2091565512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -1057,7 +1120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141558920"/>
+        <c:crossAx val="2091560040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,19 +1231,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17.8875</c:v>
+                  <c:v>14.8116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0275</c:v>
+                  <c:v>12.7499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.655</c:v>
+                  <c:v>11.4911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.9189</c:v>
+                  <c:v>15.2717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.8715</c:v>
+                  <c:v>14.6946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,19 +1294,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.9325</c:v>
+                  <c:v>7.1524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.4607</c:v>
+                  <c:v>8.9795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3416</c:v>
+                  <c:v>6.6468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9971</c:v>
+                  <c:v>9.1085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.9835</c:v>
+                  <c:v>29.4893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,11 +1321,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2097043352"/>
-        <c:axId val="2093111576"/>
+        <c:axId val="2091598792"/>
+        <c:axId val="2091604264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2097043352"/>
+        <c:axId val="2091598792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093111576"/>
+        <c:crossAx val="2091604264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093111576"/>
+        <c:axId val="2091604264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40.0"/>
@@ -1337,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097043352"/>
+        <c:crossAx val="2091598792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,16 +1456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1458,15 +1521,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1812,15 +1875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="S20" sqref="S20:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1">
         <v>1998</v>
       </c>
@@ -1828,7 +1891,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,6 +1903,9 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="R2" s="1">
         <v>2009</v>
@@ -1848,18 +1914,22 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12.87909</v>
+        <v>15.95425</v>
       </c>
       <c r="C3">
-        <v>13.62067</v>
+        <v>15.860900000000001</v>
       </c>
       <c r="D3">
-        <v>26.499749999999999</v>
+        <v>31.815149999999999</v>
+      </c>
+      <c r="E3">
+        <f>C3/B3</f>
+        <v>0.99414889449519728</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>0</v>
@@ -1874,59 +1944,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6.82951</v>
+        <v>7.2813299999999996</v>
       </c>
       <c r="C4">
-        <v>21.988399999999999</v>
+        <v>20.79345</v>
       </c>
       <c r="D4">
-        <v>28.817910000000001</v>
+        <v>28.074780000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">C4/B4</f>
+        <v>2.8557214135329674</v>
       </c>
       <c r="R4" t="s">
         <v>4</v>
       </c>
       <c r="S4">
-        <v>20.466699999999999</v>
+        <v>18.591799999999999</v>
       </c>
       <c r="T4">
-        <v>6.0015999999999998</v>
+        <v>5.3613</v>
       </c>
       <c r="U4">
-        <v>26.4682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>23.952999999999999</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V8" si="1">T4/S4</f>
+        <v>0.28836906593229272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.2168100000000002</v>
+        <v>4.1720300000000003</v>
       </c>
       <c r="C5">
-        <v>16.432919999999999</v>
+        <v>18.226749999999999</v>
       </c>
       <c r="D5">
-        <v>18.649730000000002</v>
+        <v>22.398769999999999</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4.368796485164296</v>
       </c>
       <c r="R5" t="s">
         <v>5</v>
       </c>
       <c r="S5">
-        <v>21.2376</v>
+        <v>20.8443</v>
       </c>
       <c r="T5">
-        <v>9.9708000000000006</v>
+        <v>10.249599999999999</v>
       </c>
       <c r="U5">
-        <v>31.208400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>31.093900000000001</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0.49172195756153958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1943,16 +2029,20 @@
         <v>6</v>
       </c>
       <c r="S6">
-        <v>20.0059</v>
+        <v>19.570699999999999</v>
       </c>
       <c r="T6">
-        <v>9.6332000000000004</v>
+        <v>9.3293999999999997</v>
       </c>
       <c r="U6">
-        <v>29.639099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>28.900099999999998</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0.4767024173892605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1969,30 +2059,38 @@
         <v>7</v>
       </c>
       <c r="S7">
-        <v>14.8432</v>
+        <v>14.675800000000001</v>
       </c>
       <c r="T7">
-        <v>7.9816000000000003</v>
+        <v>8.4359000000000002</v>
       </c>
       <c r="U7">
-        <v>22.8248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>23.111699999999999</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="1"/>
+        <v>0.57481704574878367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="R8" t="s">
         <v>8</v>
       </c>
       <c r="S8">
-        <v>13.8033</v>
+        <v>13.999700000000001</v>
       </c>
       <c r="T8">
-        <v>10.915800000000001</v>
+        <v>11.438599999999999</v>
       </c>
       <c r="U8">
-        <v>24.719100000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>25.438300000000002</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0.81706036557926232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>2008</v>
       </c>
@@ -2003,7 +2101,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,6 +2114,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="R19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2029,134 +2130,244 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>17.887499999999999</v>
+        <v>14.8116</v>
       </c>
       <c r="C20">
-        <v>7.9325000000000001</v>
+        <v>7.1524000000000001</v>
       </c>
       <c r="D20">
-        <v>25.82</v>
+        <v>21.963899999999999</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E24" si="2">C20/B20</f>
+        <v>0.48289178751789136</v>
       </c>
       <c r="R20" t="s">
         <v>4</v>
       </c>
       <c r="S20">
-        <v>14.391999999999999</v>
+        <v>13.496</v>
       </c>
       <c r="T20">
-        <v>12.438000000000001</v>
+        <v>11.608000000000001</v>
       </c>
       <c r="U20">
-        <v>26.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20:V24" si="3">T20/S20</f>
+        <v>0.86010669828097219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>17.0275</v>
+        <v>12.7499</v>
       </c>
       <c r="C21">
-        <v>12.460699999999999</v>
+        <v>8.9794999999999998</v>
       </c>
       <c r="D21">
-        <v>29.488099999999999</v>
+        <v>21.729399999999998</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0.70428003356889068</v>
       </c>
       <c r="R21" t="s">
         <v>5</v>
       </c>
       <c r="S21">
-        <v>13.205</v>
+        <v>13.519</v>
       </c>
       <c r="T21">
-        <v>16.492000000000001</v>
+        <v>16.745999999999999</v>
       </c>
       <c r="U21">
-        <v>29.696999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>30.265999999999998</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>1.2387010873585322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>10.654999999999999</v>
+        <v>11.491099999999999</v>
       </c>
       <c r="C22">
-        <v>6.3415999999999997</v>
+        <v>6.6467999999999998</v>
       </c>
       <c r="D22">
-        <v>16.996600000000001</v>
+        <v>18.137899999999998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0.57843026342125647</v>
       </c>
       <c r="R22" t="s">
         <v>6</v>
       </c>
       <c r="S22">
-        <v>14.811</v>
+        <v>14.396000000000001</v>
       </c>
       <c r="T22">
-        <v>11.853</v>
+        <v>10.898</v>
       </c>
       <c r="U22">
-        <v>26.663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>25.292999999999999</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>0.75701583773270342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>15.918900000000001</v>
+        <v>15.271699999999999</v>
       </c>
       <c r="C23">
-        <v>8.9970999999999997</v>
+        <v>9.1084999999999994</v>
       </c>
       <c r="D23">
-        <v>24.916</v>
+        <v>24.380099999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0.59642999797010154</v>
       </c>
       <c r="R23" t="s">
         <v>7</v>
       </c>
       <c r="S23">
-        <v>13.742000000000001</v>
+        <v>13.37</v>
       </c>
       <c r="T23">
-        <v>19.891999999999999</v>
+        <v>19.172999999999998</v>
       </c>
       <c r="U23">
-        <v>33.634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>32.542999999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>1.4340314136125654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24">
-        <v>14.871499999999999</v>
+        <v>14.694599999999999</v>
       </c>
       <c r="C24">
-        <v>35.983499999999999</v>
+        <v>29.4893</v>
       </c>
       <c r="D24">
-        <v>50.854900000000001</v>
+        <v>44.183900000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>2.0068120261864903</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
       </c>
       <c r="S24">
-        <v>17.561</v>
+        <v>17.149000000000001</v>
       </c>
       <c r="T24">
-        <v>39.210999999999999</v>
+        <v>38.494</v>
       </c>
       <c r="U24">
-        <v>56.771999999999998</v>
+        <v>55.643000000000001</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>2.2446789900285729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>13.496</v>
+      </c>
+      <c r="D28">
+        <v>11.608000000000001</v>
+      </c>
+      <c r="E28">
+        <v>25.103999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>13.519</v>
+      </c>
+      <c r="D29">
+        <v>16.745999999999999</v>
+      </c>
+      <c r="E29">
+        <v>30.265999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>14.396000000000001</v>
+      </c>
+      <c r="D30">
+        <v>10.898</v>
+      </c>
+      <c r="E30">
+        <v>25.292999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>13.37</v>
+      </c>
+      <c r="D31">
+        <v>19.172999999999998</v>
+      </c>
+      <c r="E31">
+        <v>32.542999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>17.149000000000001</v>
+      </c>
+      <c r="D32">
+        <v>38.494</v>
+      </c>
+      <c r="E32">
+        <v>55.643000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Figure 9 - Integrated HPLC/Figure 9 HPLC All.xlsx
+++ b/Figure 9 - Integrated HPLC/Figure 9 HPLC All.xlsx
@@ -1457,13 +1457,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
